--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8856338-7FB5-4B81-A90D-A61899DF9391}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76212C-3A18-4D93-93AF-91B6AC37FACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,45 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>ts_code</t>
   </si>
   <si>
-    <t>trade_date</t>
-  </si>
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>收盘价</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>资金排名</t>
-  </si>
-  <si>
-    <t>market_type</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>net_amount</t>
   </si>
   <si>
     <t>code</t>
@@ -79,79 +46,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p_change</t>
-  </si>
-  <si>
-    <t>涨跌幅</t>
-  </si>
-  <si>
-    <t>市场类型 2：港股通（沪） 4：港股通（深）</t>
-  </si>
-  <si>
-    <t>累计成交金额</t>
-  </si>
-  <si>
-    <t>净买入金额</t>
-  </si>
-  <si>
-    <t>sh_amount</t>
-  </si>
-  <si>
-    <t>沪市成交金额</t>
-  </si>
-  <si>
-    <t>sh_net_amount</t>
-  </si>
-  <si>
-    <t>沪市净买入金额</t>
-  </si>
-  <si>
-    <t>sh_buy</t>
-  </si>
-  <si>
-    <t>沪市买入金额</t>
-  </si>
-  <si>
-    <t>sh_sell</t>
-  </si>
-  <si>
-    <t>沪市卖出金额</t>
-  </si>
-  <si>
-    <t>sz_amount</t>
-  </si>
-  <si>
-    <t>深市成交金额</t>
-  </si>
-  <si>
-    <t>sz_net_amount</t>
-  </si>
-  <si>
-    <t>深市净买入金额</t>
-  </si>
-  <si>
-    <t>sz_buy</t>
-  </si>
-  <si>
-    <t>深市买入金额</t>
-  </si>
-  <si>
-    <t>sz_sell</t>
-  </si>
-  <si>
-    <t>深市卖出金额</t>
+    <t>TS代码</t>
+  </si>
+  <si>
+    <t>简称</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>指数全称</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>发布方</t>
+  </si>
+  <si>
+    <t>index_type</t>
+  </si>
+  <si>
+    <t>指数风格</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>指数类别</t>
+  </si>
+  <si>
+    <t>base_date</t>
+  </si>
+  <si>
+    <t>基期</t>
+  </si>
+  <si>
+    <t>base_point</t>
+  </si>
+  <si>
+    <t>基点</t>
+  </si>
+  <si>
+    <t>list_date</t>
+  </si>
+  <si>
+    <t>发布日期</t>
+  </si>
+  <si>
+    <t>weight_rule</t>
+  </si>
+  <si>
+    <t>加权方式</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>exp_date</t>
+  </si>
+  <si>
+    <t>终止日期</t>
   </si>
   <si>
     <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>String(20)</t>
-  </si>
-  <si>
-    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>String(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +165,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,12 +186,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE0E0E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE0E0E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE0E0E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -198,12 +215,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,1146 +544,1110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651E96D7-4BDF-4C20-A3CE-5D374CB56BDE}">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+    <row r="9" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
+    <row r="15" spans="1:5">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
+    <row r="16" spans="1:5">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="4:5">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
+    <row r="18" spans="4:5">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:5">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:5">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:5">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:5">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:5">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:5">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:5">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:5">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:5">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:5">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:5">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:5">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:5">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:5">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:5">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:5">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:5">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:5">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:5">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:5">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:5">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:5">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:5">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:5">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:5">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:5">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:5">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:5">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:5">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:5">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:5">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:5">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:5">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:5">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:5">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:5">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:5">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:5">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:5">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:5">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:5">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:5">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:5">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:5">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:5">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:5">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:5">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:5">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:5">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:5">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:5">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:5">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:5">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:5">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:5">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:5">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:5">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:5">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:5">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:5">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:5">
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:5">
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:5">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:5">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:5">
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:5">
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:5">
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:5">
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:5">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:5">
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:5">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:5">
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:5">
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:5">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:5">
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:5">
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:5">
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:5">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:5">
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:5">
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:5">
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:5">
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:5">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:5">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:5">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:5">
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:5">
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:5">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:5">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:5">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:5">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:5">
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:5">
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:5">
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:5">
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:5">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:5">
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:5">
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:5">
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:5">
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:5">
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:5">
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:5">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:5">
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:5">
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:5">
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:5">
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:5">
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:5">
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:5">
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:5">
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:5">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:5">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:5">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:5">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:5">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:5">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:5">
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:5">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:5">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:5">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:5">
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:5">
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:5">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:5">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:5">
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:5">
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:5">
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:5">
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:5">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:5">
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:5">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:5">
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:5">
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:5">
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:5">
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:5">
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:5">
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:5">
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:5">
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:5">
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:5">
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:5">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:5">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:5">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:5">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:5">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:5">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:5">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:5">
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:5">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:5">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:5">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:5">
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:5">
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:5">
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:5">
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:5">
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:5">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:5">
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:5">
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:5">
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:5">
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:5">
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:5">
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:5">
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:5">
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:5">
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:5">
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:5">
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:5">
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:5">
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:5">
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:5">
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:5">
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:5">
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:5">
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:5">
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:5">
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:5">
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:5">
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:5">
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:5">
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:5">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:5">
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:5">
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:5">
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:5">
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:5">
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:5">
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:5">
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:5">
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:5">
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:5">
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:5">
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:5">
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:5">
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:5">
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:5">
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:5">
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:5">
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE76212C-3A18-4D93-93AF-91B6AC37FACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778DA38-97DB-4FC5-A01B-F0468AE27150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>ts_code</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>code</t>
@@ -49,99 +46,116 @@
     <t>TS代码</t>
   </si>
   <si>
-    <t>简称</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>指数全称</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>市场</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>发布方</t>
-  </si>
-  <si>
-    <t>index_type</t>
-  </si>
-  <si>
-    <t>指数风格</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>指数类别</t>
-  </si>
-  <si>
     <t>base_date</t>
   </si>
   <si>
-    <t>基期</t>
-  </si>
-  <si>
-    <t>base_point</t>
-  </si>
-  <si>
-    <t>基点</t>
-  </si>
-  <si>
-    <t>list_date</t>
-  </si>
-  <si>
-    <t>发布日期</t>
-  </si>
-  <si>
-    <t>weight_rule</t>
-  </si>
-  <si>
-    <t>加权方式</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>exp_date</t>
-  </si>
-  <si>
-    <t>终止日期</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>分红年度</t>
+  </si>
+  <si>
+    <t>ann_date</t>
+  </si>
+  <si>
+    <t>预案公告日</t>
+  </si>
+  <si>
+    <t>div_proc</t>
+  </si>
+  <si>
+    <t>实施进度</t>
+  </si>
+  <si>
+    <t>stk_div</t>
+  </si>
+  <si>
+    <t>每股送转</t>
+  </si>
+  <si>
+    <t>stk_bo_rate</t>
+  </si>
+  <si>
+    <t>每股送股比例</t>
+  </si>
+  <si>
+    <t>stk_co_rate</t>
+  </si>
+  <si>
+    <t>每股转增比例</t>
+  </si>
+  <si>
+    <t>cash_div</t>
+  </si>
+  <si>
+    <t>每股分红（税后）</t>
+  </si>
+  <si>
+    <t>cash_div_tax</t>
+  </si>
+  <si>
+    <t>每股分红（税前）</t>
+  </si>
+  <si>
+    <t>record_date</t>
+  </si>
+  <si>
+    <t>股权登记日</t>
+  </si>
+  <si>
+    <t>ex_date</t>
+  </si>
+  <si>
+    <t>除权除息日</t>
+  </si>
+  <si>
+    <t>pay_date</t>
+  </si>
+  <si>
+    <t>派息日</t>
+  </si>
+  <si>
+    <t>div_listdate</t>
+  </si>
+  <si>
+    <t>红股上市日</t>
+  </si>
+  <si>
+    <t>imp_ann_date</t>
+  </si>
+  <si>
+    <t>实施公告日</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>基准日</t>
+  </si>
+  <si>
+    <t>base_share</t>
+  </si>
+  <si>
+    <t>基准股本（万</t>
+  </si>
+  <si>
+    <t>String(20)</t>
   </si>
   <si>
     <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>String(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String(30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,12 +184,6 @@
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +550,10 @@
   <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -556,1098 +561,1158 @@
     <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="4:5">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="4:5">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="4:5">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="4:5">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="4:5">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="4:5">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="4:5">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="4:5">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="4:5">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="4:5">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="4:5">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="4:5">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="4:5">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="4:5">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="4:5">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="4:5">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="4:5">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="4:5">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="4:5">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="4:5">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="4:5">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="4:5">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="4:5">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="4:5">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="4:5">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="4:5">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="4:5">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="4:5">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="4:5">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="4:5">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="4:5">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="4:5">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="4:5">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="4:5">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="4:5">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="4:5">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="4:5">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="4:5">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="4:5">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="4:5">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="4:5">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="4:5">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="4:5">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="4:5">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="4:5">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="4:5">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="4:5">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="4:5">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="4:5">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="4:5">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="4:5">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="4:5">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="4:5">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="4:5">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="4:5">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="4:5">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="4:5">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="4:5">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="4:5">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="4:5">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="4:5">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="4:5">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="4:5">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="4:5">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="4:5">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="4:5">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="4:5">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="4:5">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="4:5">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="4:5">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="4:5">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="4:5">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="4:5">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="4:5">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="4:5">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="4:5">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="4:5">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="4:5">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="4:5">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="4:5">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="4:5">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="4:5">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="4:5">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="4:5">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="4:5">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="4:5">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="4:5">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="4:5">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="4:5">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="4:5">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="4:5">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="4:5">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="4:5">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="4:5">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="4:5">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="4:5">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="4:5">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="4:5">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="4:5">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="4:5">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="4:5">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="4:5">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="4:5">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="4:5">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="4:5">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="4:5">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="4:5">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="4:5">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="4:5">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="4:5">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="4:5">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="4:5">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="4:5">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="4:5">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="4:5">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="4:5">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="4:5">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="4:5">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="4:5">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="4:5">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="4:5">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="4:5">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="4:5">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="4:5">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="4:5">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="4:5">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="4:5">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="4:5">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="4:5">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="4:5">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="4:5">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="4:5">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="4:5">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="4:5">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="4:5">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="4:5">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="4:5">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="4:5">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778DA38-97DB-4FC5-A01B-F0468AE27150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE1F44-B4F9-44FD-9181-61B8674A4074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>ts_code</t>
   </si>
@@ -46,116 +46,104 @@
     <t>TS代码</t>
   </si>
   <si>
-    <t>base_date</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+  </si>
+  <si>
+    <t>交易日期</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>收盘价</t>
+  </si>
+  <si>
+    <t>pct_change</t>
+  </si>
+  <si>
+    <t>涨跌幅</t>
+  </si>
+  <si>
+    <t>turnover_rate</t>
+  </si>
+  <si>
+    <t>换手率</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>总成交额</t>
+  </si>
+  <si>
+    <t>l_sell</t>
+  </si>
+  <si>
+    <t>龙虎榜卖出额</t>
+  </si>
+  <si>
+    <t>l_buy</t>
+  </si>
+  <si>
+    <t>龙虎榜买入额</t>
+  </si>
+  <si>
+    <t>l_amount</t>
+  </si>
+  <si>
+    <t>龙虎榜成交额</t>
+  </si>
+  <si>
+    <t>net_amount</t>
+  </si>
+  <si>
+    <t>龙虎榜净买入额</t>
+  </si>
+  <si>
+    <t>net_rate</t>
+  </si>
+  <si>
+    <t>龙虎榜净买额占比</t>
+  </si>
+  <si>
+    <t>amount_rate</t>
+  </si>
+  <si>
+    <t>龙虎榜成交额占比</t>
+  </si>
+  <si>
+    <t>float_values</t>
+  </si>
+  <si>
+    <t>当日流通市值</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>上榜理由</t>
+  </si>
+  <si>
+    <t>String(20)</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>分红年度</t>
-  </si>
-  <si>
-    <t>ann_date</t>
-  </si>
-  <si>
-    <t>预案公告日</t>
-  </si>
-  <si>
-    <t>div_proc</t>
-  </si>
-  <si>
-    <t>实施进度</t>
-  </si>
-  <si>
-    <t>stk_div</t>
-  </si>
-  <si>
-    <t>每股送转</t>
-  </si>
-  <si>
-    <t>stk_bo_rate</t>
-  </si>
-  <si>
-    <t>每股送股比例</t>
-  </si>
-  <si>
-    <t>stk_co_rate</t>
-  </si>
-  <si>
-    <t>每股转增比例</t>
-  </si>
-  <si>
-    <t>cash_div</t>
-  </si>
-  <si>
-    <t>每股分红（税后）</t>
-  </si>
-  <si>
-    <t>cash_div_tax</t>
-  </si>
-  <si>
-    <t>每股分红（税前）</t>
-  </si>
-  <si>
-    <t>record_date</t>
-  </si>
-  <si>
-    <t>股权登记日</t>
-  </si>
-  <si>
-    <t>ex_date</t>
-  </si>
-  <si>
-    <t>除权除息日</t>
-  </si>
-  <si>
-    <t>pay_date</t>
-  </si>
-  <si>
-    <t>派息日</t>
-  </si>
-  <si>
-    <t>div_listdate</t>
-  </si>
-  <si>
-    <t>红股上市日</t>
-  </si>
-  <si>
-    <t>imp_ann_date</t>
-  </si>
-  <si>
-    <t>实施公告日</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>基准日</t>
-  </si>
-  <si>
-    <t>base_share</t>
-  </si>
-  <si>
-    <t>基准股本（万</t>
-  </si>
-  <si>
-    <t>String(20)</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +538,7 @@
   <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,241 +559,233 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE1F44-B4F9-44FD-9181-61B8674A4074}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA580B6C-4A5C-49BB-B0B9-D88D47AEAC13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,9 +30,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
-  <si>
-    <t>ts_code</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>主机板</t>
+  </si>
+  <si>
+    <t>印刷电路板</t>
+  </si>
+  <si>
+    <t>IC载板</t>
+  </si>
+  <si>
+    <t>PCB组装</t>
+  </si>
+  <si>
+    <t>软板</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>PCB原料</t>
+  </si>
+  <si>
+    <t>铜箔基板</t>
+  </si>
+  <si>
+    <t>玻纤纱布</t>
+  </si>
+  <si>
+    <t>FCCL</t>
+  </si>
+  <si>
+    <t>显示卡</t>
+  </si>
+  <si>
+    <t>绘图卡</t>
+  </si>
+  <si>
+    <t>电视卡</t>
+  </si>
+  <si>
+    <t>泛工业电脑</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>工业电脑</t>
+  </si>
+  <si>
+    <t>光电IO</t>
+  </si>
+  <si>
+    <t>监视器</t>
+  </si>
+  <si>
+    <t>扫描器</t>
+  </si>
+  <si>
+    <t>PC周边</t>
+  </si>
+  <si>
+    <t>储存媒体</t>
+  </si>
+  <si>
+    <t>光碟</t>
+  </si>
+  <si>
+    <t>硬盘磁盘</t>
+  </si>
+  <si>
+    <t>发光二极体</t>
+  </si>
+  <si>
+    <t>太阳能</t>
+  </si>
+  <si>
+    <t>LCD面板</t>
+  </si>
+  <si>
+    <t>背光模组</t>
+  </si>
+  <si>
+    <t>LCD原料</t>
+  </si>
+  <si>
+    <t>LCD其它</t>
+  </si>
+  <si>
+    <t>触控面板</t>
+  </si>
+  <si>
+    <t>监控系统</t>
+  </si>
+  <si>
+    <t>其它光电</t>
+  </si>
+  <si>
+    <t>电子零组件</t>
+  </si>
+  <si>
+    <t>二极体整流</t>
+  </si>
+  <si>
+    <t>连接器</t>
+  </si>
+  <si>
+    <t>电源供应器</t>
+  </si>
+  <si>
+    <t>机壳</t>
+  </si>
+  <si>
+    <t>被动元件</t>
+  </si>
+  <si>
+    <t>石英元件</t>
+  </si>
+  <si>
+    <t>3C二次电源</t>
+  </si>
+  <si>
+    <t>网路设备</t>
+  </si>
+  <si>
+    <t>数据机</t>
+  </si>
+  <si>
+    <t>网路卡</t>
+  </si>
+  <si>
+    <t>半导体</t>
+  </si>
+  <si>
+    <t>晶圆制造</t>
+  </si>
+  <si>
+    <t>IC封测</t>
+  </si>
+  <si>
+    <t>特用IC</t>
+  </si>
+  <si>
+    <t>记忆体模组</t>
+  </si>
+  <si>
+    <t>晶圆材料</t>
+  </si>
+  <si>
+    <t>IC设计</t>
+  </si>
+  <si>
+    <t>IC光罩</t>
+  </si>
+  <si>
+    <t>电子设备</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>通讯设备</t>
+  </si>
+  <si>
+    <t>电信业</t>
+  </si>
+  <si>
+    <t>网路服务</t>
+  </si>
+  <si>
+    <t>卫星通讯</t>
+  </si>
+  <si>
+    <t>光纤通讯</t>
+  </si>
+  <si>
+    <t>3C通路</t>
+  </si>
+  <si>
+    <t>消费性电子</t>
+  </si>
+  <si>
+    <t>照相机</t>
+  </si>
+  <si>
+    <t>软件服务</t>
+  </si>
+  <si>
+    <t>系统整合</t>
   </si>
   <si>
     <t>code</t>
@@ -40,110 +232,6 @@
   </si>
   <si>
     <t>types</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS代码</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>trade_date</t>
-  </si>
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>收盘价</t>
-  </si>
-  <si>
-    <t>pct_change</t>
-  </si>
-  <si>
-    <t>涨跌幅</t>
-  </si>
-  <si>
-    <t>turnover_rate</t>
-  </si>
-  <si>
-    <t>换手率</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>总成交额</t>
-  </si>
-  <si>
-    <t>l_sell</t>
-  </si>
-  <si>
-    <t>龙虎榜卖出额</t>
-  </si>
-  <si>
-    <t>l_buy</t>
-  </si>
-  <si>
-    <t>龙虎榜买入额</t>
-  </si>
-  <si>
-    <t>l_amount</t>
-  </si>
-  <si>
-    <t>龙虎榜成交额</t>
-  </si>
-  <si>
-    <t>net_amount</t>
-  </si>
-  <si>
-    <t>龙虎榜净买入额</t>
-  </si>
-  <si>
-    <t>net_rate</t>
-  </si>
-  <si>
-    <t>龙虎榜净买额占比</t>
-  </si>
-  <si>
-    <t>amount_rate</t>
-  </si>
-  <si>
-    <t>龙虎榜成交额占比</t>
-  </si>
-  <si>
-    <t>float_values</t>
-  </si>
-  <si>
-    <t>当日流通市值</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>上榜理由</t>
-  </si>
-  <si>
-    <t>String(20)</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +257,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -211,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +320,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,1161 +645,1399 @@
   <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="51.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA580B6C-4A5C-49BB-B0B9-D88D47AEAC13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459834D-159F-49C8-A9C4-3374C8C49543}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,201 +30,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>主机板</t>
-  </si>
-  <si>
-    <t>印刷电路板</t>
-  </si>
-  <si>
-    <t>IC载板</t>
-  </si>
-  <si>
-    <t>PCB组装</t>
-  </si>
-  <si>
-    <t>软板</t>
-  </si>
-  <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>PCB原料</t>
-  </si>
-  <si>
-    <t>铜箔基板</t>
-  </si>
-  <si>
-    <t>玻纤纱布</t>
-  </si>
-  <si>
-    <t>FCCL</t>
-  </si>
-  <si>
-    <t>显示卡</t>
-  </si>
-  <si>
-    <t>绘图卡</t>
-  </si>
-  <si>
-    <t>电视卡</t>
-  </si>
-  <si>
-    <t>泛工业电脑</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>工业电脑</t>
-  </si>
-  <si>
-    <t>光电IO</t>
-  </si>
-  <si>
-    <t>监视器</t>
-  </si>
-  <si>
-    <t>扫描器</t>
-  </si>
-  <si>
-    <t>PC周边</t>
-  </si>
-  <si>
-    <t>储存媒体</t>
-  </si>
-  <si>
-    <t>光碟</t>
-  </si>
-  <si>
-    <t>硬盘磁盘</t>
-  </si>
-  <si>
-    <t>发光二极体</t>
-  </si>
-  <si>
-    <t>太阳能</t>
-  </si>
-  <si>
-    <t>LCD面板</t>
-  </si>
-  <si>
-    <t>背光模组</t>
-  </si>
-  <si>
-    <t>LCD原料</t>
-  </si>
-  <si>
-    <t>LCD其它</t>
-  </si>
-  <si>
-    <t>触控面板</t>
-  </si>
-  <si>
-    <t>监控系统</t>
-  </si>
-  <si>
-    <t>其它光电</t>
-  </si>
-  <si>
-    <t>电子零组件</t>
-  </si>
-  <si>
-    <t>二极体整流</t>
-  </si>
-  <si>
-    <t>连接器</t>
-  </si>
-  <si>
-    <t>电源供应器</t>
-  </si>
-  <si>
-    <t>机壳</t>
-  </si>
-  <si>
-    <t>被动元件</t>
-  </si>
-  <si>
-    <t>石英元件</t>
-  </si>
-  <si>
-    <t>3C二次电源</t>
-  </si>
-  <si>
-    <t>网路设备</t>
-  </si>
-  <si>
-    <t>数据机</t>
-  </si>
-  <si>
-    <t>网路卡</t>
-  </si>
-  <si>
-    <t>半导体</t>
-  </si>
-  <si>
-    <t>晶圆制造</t>
-  </si>
-  <si>
-    <t>IC封测</t>
-  </si>
-  <si>
-    <t>特用IC</t>
-  </si>
-  <si>
-    <t>记忆体模组</t>
-  </si>
-  <si>
-    <t>晶圆材料</t>
-  </si>
-  <si>
-    <t>IC设计</t>
-  </si>
-  <si>
-    <t>IC光罩</t>
-  </si>
-  <si>
-    <t>电子设备</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>通讯设备</t>
-  </si>
-  <si>
-    <t>电信业</t>
-  </si>
-  <si>
-    <t>网路服务</t>
-  </si>
-  <si>
-    <t>卫星通讯</t>
-  </si>
-  <si>
-    <t>光纤通讯</t>
-  </si>
-  <si>
-    <t>3C通路</t>
-  </si>
-  <si>
-    <t>消费性电子</t>
-  </si>
-  <si>
-    <t>照相机</t>
-  </si>
-  <si>
-    <t>软件服务</t>
-  </si>
-  <si>
-    <t>系统整合</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+  <si>
+    <t>ts_code</t>
+  </si>
+  <si>
+    <t>TS代码</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>所在地域</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>所属行业</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>股票全称</t>
+  </si>
+  <si>
+    <t>enname</t>
+  </si>
+  <si>
+    <t>英文全称</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>市场类型 （主板/中小板/创业板）</t>
+  </si>
+  <si>
+    <t>exchange_id</t>
+  </si>
+  <si>
+    <t>交易所代码</t>
+  </si>
+  <si>
+    <t>curr_type</t>
+  </si>
+  <si>
+    <t>交易货币</t>
+  </si>
+  <si>
+    <t>list_status</t>
+  </si>
+  <si>
+    <t>上市状态： L上市 D退市 P暂停上市</t>
+  </si>
+  <si>
+    <t>list_date</t>
+  </si>
+  <si>
+    <t>上市日期</t>
+  </si>
+  <si>
+    <t>delist_date</t>
+  </si>
+  <si>
+    <t>退市日期</t>
+  </si>
+  <si>
+    <t>is_hs</t>
+  </si>
+  <si>
+    <t>是否沪深港通标的，N否 H沪股通 S深股通</t>
+  </si>
+  <si>
+    <t>String(20)</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>String(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
@@ -262,14 +177,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="6"/>
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="9"/>
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -323,7 +237,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -642,694 +556,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651E96D7-4BDF-4C20-A3CE-5D374CB56BDE}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="51.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>66</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>3</v>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>4</v>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>5</v>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
-        <v>6</v>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
-        <v>7</v>
+      <c r="A8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
-        <v>8</v>
+      <c r="A9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
-        <v>9</v>
+      <c r="A10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
-        <v>10</v>
+      <c r="A11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>11</v>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
-        <v>12</v>
+      <c r="A13" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
-        <v>13</v>
+      <c r="A14" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
-        <v>14</v>
+      <c r="A15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="4">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
@@ -2040,6 +1779,10 @@
     <row r="244" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459834D-159F-49C8-A9C4-3374C8C49543}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C8E2C-FE31-40A6-A5F5-6AE5F7562735}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,116 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>ts_code</t>
   </si>
   <si>
-    <t>TS代码</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>所在地域</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>所属行业</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>股票全称</t>
-  </si>
-  <si>
-    <t>enname</t>
-  </si>
-  <si>
-    <t>英文全称</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>市场类型 （主板/中小板/创业板）</t>
-  </si>
-  <si>
-    <t>exchange_id</t>
-  </si>
-  <si>
-    <t>交易所代码</t>
-  </si>
-  <si>
-    <t>curr_type</t>
-  </si>
-  <si>
-    <t>交易货币</t>
-  </si>
-  <si>
-    <t>list_status</t>
-  </si>
-  <si>
-    <t>上市状态： L上市 D退市 P暂停上市</t>
-  </si>
-  <si>
-    <t>list_date</t>
-  </si>
-  <si>
-    <t>上市日期</t>
-  </si>
-  <si>
-    <t>delist_date</t>
-  </si>
-  <si>
-    <t>退市日期</t>
-  </si>
-  <si>
-    <t>is_hs</t>
-  </si>
-  <si>
-    <t>是否沪深港通标的，N否 H沪股通 S深股通</t>
-  </si>
-  <si>
     <t>String(20)</t>
   </si>
   <si>
     <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>String(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String(40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
@@ -148,13 +47,106 @@
   <si>
     <t>types</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TS股票代码</t>
+  </si>
+  <si>
+    <t>ann_date</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+  </si>
+  <si>
+    <t>holder_name</t>
+  </si>
+  <si>
+    <t>股东名称</t>
+  </si>
+  <si>
+    <t>pledge_amount</t>
+  </si>
+  <si>
+    <t>质押数量</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>质押开始日期</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>质押结束日期</t>
+  </si>
+  <si>
+    <t>is_release</t>
+  </si>
+  <si>
+    <t>是否已解押</t>
+  </si>
+  <si>
+    <t>release_date</t>
+  </si>
+  <si>
+    <t>解押日期</t>
+  </si>
+  <si>
+    <t>pledgor</t>
+  </si>
+  <si>
+    <t>质押方</t>
+  </si>
+  <si>
+    <t>holding_amount</t>
+  </si>
+  <si>
+    <t>持股总数</t>
+  </si>
+  <si>
+    <t>pledged_amount</t>
+  </si>
+  <si>
+    <t>质押总数</t>
+  </si>
+  <si>
+    <t>p_total_ratio</t>
+  </si>
+  <si>
+    <t>本次质押占总股本比例</t>
+  </si>
+  <si>
+    <t>h_total_ratio</t>
+  </si>
+  <si>
+    <t>持股总数占总股本比例</t>
+  </si>
+  <si>
+    <t>is_buyback</t>
+  </si>
+  <si>
+    <t>是否回购</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +179,12 @@
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +239,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,1228 +560,1265 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="51.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="29.25" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="15" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="15" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:5">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="4:5">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="4:5">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:5">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="4:5">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="4:5">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="4:5">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="4:5">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="4:5">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="4:5">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="4:5">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="4:5">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="4:5">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="4:5">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="4:5">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="4:5">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:5">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:5">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:5">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:5">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:5">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:5">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:5">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:5">
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:5">
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:5">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:5">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:5">
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:5">
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:5">
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:5">
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:5">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="4:5">
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="4:5">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="4:5">
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="4:5">
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="4:5">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="4:5">
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="4:5">
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="4:5">
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="4:5">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="4:5">
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="4:5">
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="4:5">
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="4:5">
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="4:5">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="4:5">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="4:5">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:5">
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:5">
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:5">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:5">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:5">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="4:5">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="4:5">
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="4:5">
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="4:5">
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="4:5">
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="4:5">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="4:5">
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="4:5">
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="4:5">
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="4:5">
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="4:5">
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="4:5">
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="4:5">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="4:5">
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="4:5">
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="4:5">
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="4:5">
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="4:5">
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="4:5">
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="4:5">
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="4:5">
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="4:5">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="4:5">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="4:5">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="4:5">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="4:5">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="4:5">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="4:5">
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="4:5">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="4:5">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="4:5">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="4:5">
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="4:5">
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="4:5">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="4:5">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="4:5">
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="4:5">
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="4:5">
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="4:5">
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="4:5">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="4:5">
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="4:5">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="4:5">
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="4:5">
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="4:5">
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="4:5">
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="4:5">
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="4:5">
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="4:5">
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="4:5">
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="4:5">
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="4:5">
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="4:5">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="4:5">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="4:5">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="4:5">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="4:5">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="4:5">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="4:5">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="4:5">
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="4:5">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="4:5">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="4:5">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="4:5">
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="4:5">
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="4:5">
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="4:5">
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="4:5">
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="4:5">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="4:5">
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="4:5">
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="4:5">
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="4:5">
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="4:5">
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="4:5">
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="4:5">
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="4:5">
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="4:5">
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="4:5">
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="4:5">
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="4:5">
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="4:5">
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="4:5">
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="4:5">
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="4:5">
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="4:5">
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="4:5">
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="4:5">
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="4:5">
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="4:5">
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="4:5">
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="4:5">
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="4:5">
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="4:5">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="4:5">
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="4:5">
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="4:5">
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="4:5">
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="4:5">
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="4:5">
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="4:5">
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="4:5">
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="4:5">
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="4:5">
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="4:5">
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="4:5">
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="4:5">
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="4:5">
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="4:5">
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="4:5">
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="4:5">
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="4:5">
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630C8E2C-FE31-40A6-A5F5-6AE5F7562735}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517EB28-56DF-4811-9C3F-E6015CD8D18C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
-  <si>
-    <t>ts_code</t>
-  </si>
-  <si>
-    <t>String(20)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>DOUBLE</t>
   </si>
@@ -52,101 +46,127 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TS股票代码</t>
-  </si>
-  <si>
-    <t>ann_date</t>
-  </si>
-  <si>
-    <t>公告日期</t>
-  </si>
-  <si>
-    <t>holder_name</t>
-  </si>
-  <si>
-    <t>股东名称</t>
-  </si>
-  <si>
-    <t>pledge_amount</t>
-  </si>
-  <si>
-    <t>质押数量</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>质押开始日期</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>简称</t>
+  </si>
+  <si>
+    <t>成立日期</t>
+  </si>
+  <si>
+    <t>String(200)</t>
+  </si>
+  <si>
+    <t>shortname</t>
+  </si>
+  <si>
+    <t>short_enname</t>
+  </si>
+  <si>
+    <t>英文缩写</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>注册地址</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>办公地址</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>公司网址</t>
+  </si>
+  <si>
+    <t>chairman</t>
+  </si>
+  <si>
+    <t>法人代表</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>总经理</t>
+  </si>
+  <si>
+    <t>reg_capital</t>
+  </si>
+  <si>
+    <t>注册资本</t>
+  </si>
+  <si>
+    <t>setup_date</t>
   </si>
   <si>
     <t>end_date</t>
   </si>
   <si>
-    <t>质押结束日期</t>
-  </si>
-  <si>
-    <t>is_release</t>
-  </si>
-  <si>
-    <t>是否已解押</t>
-  </si>
-  <si>
-    <t>release_date</t>
-  </si>
-  <si>
-    <t>解押日期</t>
-  </si>
-  <si>
-    <t>pledgor</t>
-  </si>
-  <si>
-    <t>质押方</t>
-  </si>
-  <si>
-    <t>holding_amount</t>
-  </si>
-  <si>
-    <t>持股总数</t>
-  </si>
-  <si>
-    <t>pledged_amount</t>
-  </si>
-  <si>
-    <t>质押总数</t>
-  </si>
-  <si>
-    <t>p_total_ratio</t>
-  </si>
-  <si>
-    <t>本次质押占总股本比例</t>
-  </si>
-  <si>
-    <t>h_total_ratio</t>
-  </si>
-  <si>
-    <t>持股总数占总股本比例</t>
-  </si>
-  <si>
-    <t>is_buyback</t>
-  </si>
-  <si>
-    <t>是否回购</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>公司终止日期</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>员工总数</t>
+  </si>
+  <si>
+    <t>main_business</t>
+  </si>
+  <si>
+    <t>主要产品及业务</t>
+  </si>
+  <si>
+    <t>org_code</t>
+  </si>
+  <si>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <t>credit_code</t>
+  </si>
+  <si>
+    <t>统一社会信用代码</t>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,12 +190,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <color rgb="FF0A0A0A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -224,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,10 +251,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651E96D7-4BDF-4C20-A3CE-5D374CB56BDE}">
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -571,297 +591,323 @@
     <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="29.25" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517EB28-56DF-4811-9C3F-E6015CD8D18C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF330F7-8A75-4E21-97CD-D2F1F16A4567}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>DOUBLE</t>
   </si>
@@ -43,118 +43,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>简称</t>
-  </si>
-  <si>
-    <t>成立日期</t>
-  </si>
-  <si>
-    <t>String(200)</t>
-  </si>
-  <si>
-    <t>shortname</t>
-  </si>
-  <si>
-    <t>short_enname</t>
-  </si>
-  <si>
-    <t>英文缩写</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>注册地址</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>办公地址</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>公司网址</t>
-  </si>
-  <si>
-    <t>chairman</t>
-  </si>
-  <si>
-    <t>法人代表</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>总经理</t>
-  </si>
-  <si>
-    <t>reg_capital</t>
-  </si>
-  <si>
-    <t>注册资本</t>
-  </si>
-  <si>
-    <t>setup_date</t>
-  </si>
-  <si>
     <t>end_date</t>
   </si>
   <si>
-    <t>公司终止日期</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>员工总数</t>
-  </si>
-  <si>
-    <t>main_business</t>
-  </si>
-  <si>
-    <t>主要产品及业务</t>
-  </si>
-  <si>
-    <t>org_code</t>
-  </si>
-  <si>
-    <t>组织机构代码</t>
-  </si>
-  <si>
-    <t>credit_code</t>
-  </si>
-  <si>
-    <t>统一社会信用代码</t>
+    <t>ts_code</t>
+  </si>
+  <si>
+    <t>TS股票代码</t>
+  </si>
+  <si>
+    <t>ann_date</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+  </si>
+  <si>
+    <t>报告期</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>业绩预告类型(预增/预减/扭亏/首亏/续亏/续盈/略增/略减)</t>
+  </si>
+  <si>
+    <t>p_change_min</t>
+  </si>
+  <si>
+    <t>预告净利润变动幅度下限（%）</t>
+  </si>
+  <si>
+    <t>p_change_max</t>
+  </si>
+  <si>
+    <t>预告净利润变动幅度上限（%）</t>
+  </si>
+  <si>
+    <t>net_profit_min</t>
+  </si>
+  <si>
+    <t>预告净利润下限（万元）</t>
+  </si>
+  <si>
+    <t>net_profit_max</t>
+  </si>
+  <si>
+    <t>预告净利润上限（万元）</t>
+  </si>
+  <si>
+    <t>last_parent_net</t>
+  </si>
+  <si>
+    <t>上年同期归属母公司净利润</t>
+  </si>
+  <si>
+    <t>first_ann_date</t>
+  </si>
+  <si>
+    <t>首次公告日</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>业绩预告摘要</t>
+  </si>
+  <si>
+    <t>change_reason</t>
+  </si>
+  <si>
+    <t>业绩变动原因</t>
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,12 +161,6 @@
       <color rgb="FF0A0A0A"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,14 +216,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,18 +536,18 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -601,1270 +557,1213 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
-      <c r="A9" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
-      <c r="A11" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="4:5">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="4:5">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="4:5">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="4:5">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="4:5">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="4:5">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="4:5">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="4:5">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="4:5">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="4:5">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="4:5">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="4:5">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="4:5">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="4:5">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="4:5">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="4:5">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="4:5">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="4:5">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="4:5">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="4:5">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="4:5">
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="4:5">
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="4:5">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="4:5">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="4:5">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="4:5">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="4:5">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="4:5">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="4:5">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="4:5">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="4:5">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="4:5">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="4:5">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="4:5">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="4:5">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="4:5">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="4:5">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="4:5">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="4:5">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="4:5">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="4:5">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="4:5">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="4:5">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="4:5">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="4:5">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="4:5">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="4:5">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="4:5">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="4:5">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="4:5">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="4:5">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="4:5">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="4:5">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="4:5">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="4:5">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="4:5">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="4:5">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="4:5">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="4:5">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="4:5">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="4:5">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="4:5">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="4:5">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="4:5">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="4:5">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="4:5">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="4:5">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="4:5">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="4:5">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="4:5">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="4:5">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="4:5">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="4:5">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="4:5">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="4:5">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="4:5">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="4:5">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="4:5">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="4:5">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="4:5">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="4:5">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="4:5">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="4:5">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="4:5">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="4:5">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="4:5">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="4:5">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="4:5">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="4:5">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="4:5">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="4:5">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="4:5">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="4:5">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="4:5">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="4:5">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="4:5">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="4:5">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="4:5">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="4:5">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="4:5">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="4:5">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="4:5">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="4:5">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="4:5">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="4:5">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="4:5">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="4:5">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="4:5">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="4:5">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="4:5">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="4:5">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="4:5">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="4:5">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="4:5">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="4:5">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="4:5">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="4:5">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="4:5">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="4:5">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="4:5">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="4:5">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="4:5">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="4:5">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="4:5">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="4:5">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" spans="4:5">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" spans="4:5">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" spans="4:5">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" spans="4:5">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" spans="4:5">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="4:5">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="4:5">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="4:5">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" spans="4:5">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" spans="4:5">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" spans="4:5">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="4:5">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="4:5">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" spans="4:5">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" spans="4:5">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" spans="4:5">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" spans="4:5">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" spans="4:5">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" spans="4:5">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" spans="4:5">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" spans="4:5">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" spans="4:5">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" spans="4:5">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="4:5">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="4:5">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="4:5">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" spans="4:5">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" spans="4:5">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" spans="4:5">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" spans="4:5">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
-    <row r="239" spans="4:5">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" spans="4:5">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" spans="4:5">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" spans="4:5">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" spans="4:5">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="4:5">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="4:5">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF330F7-8A75-4E21-97CD-D2F1F16A4567}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722890C-AEAF-445C-9A42-464C65DAF08B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
-  <si>
-    <t>DOUBLE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,87 +40,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>end_date</t>
-  </si>
-  <si>
     <t>ts_code</t>
   </si>
   <si>
-    <t>TS股票代码</t>
-  </si>
-  <si>
-    <t>ann_date</t>
-  </si>
-  <si>
-    <t>公告日期</t>
-  </si>
-  <si>
-    <t>报告期</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>业绩预告类型(预增/预减/扭亏/首亏/续亏/续盈/略增/略减)</t>
-  </si>
-  <si>
-    <t>p_change_min</t>
-  </si>
-  <si>
-    <t>预告净利润变动幅度下限（%）</t>
-  </si>
-  <si>
-    <t>p_change_max</t>
-  </si>
-  <si>
-    <t>预告净利润变动幅度上限（%）</t>
-  </si>
-  <si>
-    <t>net_profit_min</t>
-  </si>
-  <si>
-    <t>预告净利润下限（万元）</t>
-  </si>
-  <si>
-    <t>net_profit_max</t>
-  </si>
-  <si>
-    <t>预告净利润上限（万元）</t>
-  </si>
-  <si>
-    <t>last_parent_net</t>
-  </si>
-  <si>
-    <t>上年同期归属母公司净利润</t>
-  </si>
-  <si>
-    <t>first_ann_date</t>
-  </si>
-  <si>
-    <t>首次公告日</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>业绩预告摘要</t>
-  </si>
-  <si>
-    <t>change_reason</t>
-  </si>
-  <si>
-    <t>业绩变动原因</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TS代码</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+  </si>
+  <si>
+    <t>交易日期</t>
+  </si>
+  <si>
+    <t>total_mv</t>
+  </si>
+  <si>
+    <t>当日总市值（元）</t>
+  </si>
+  <si>
+    <t>float_mv</t>
+  </si>
+  <si>
+    <t>当日流通市值（元）</t>
+  </si>
+  <si>
+    <t>total_share</t>
+  </si>
+  <si>
+    <t>当日总股本（股）</t>
+  </si>
+  <si>
+    <t>float_share</t>
+  </si>
+  <si>
+    <t>当日流通股本（股）</t>
+  </si>
+  <si>
+    <t>free_share</t>
+  </si>
+  <si>
+    <t>当日自由流通股本（股）</t>
+  </si>
+  <si>
+    <t>turnover_rate</t>
+  </si>
+  <si>
+    <t>换手率</t>
+  </si>
+  <si>
+    <t>turnover_rate_f</t>
+  </si>
+  <si>
+    <t>换手率(基于自由流通股本)</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>市盈率</t>
+  </si>
+  <si>
+    <t>pe_ttm</t>
+  </si>
+  <si>
+    <t>市盈率TTM</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>市净率</t>
   </si>
   <si>
     <t>String(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
   </si>
   <si>
     <t>Date</t>
@@ -536,7 +531,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,52 +544,58 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -602,9 +603,11 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -612,38 +615,44 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -651,25 +660,29 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -677,12 +690,14 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -693,9 +708,11 @@
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -703,12 +720,14 @@
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722890C-AEAF-445C-9A42-464C65DAF08B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268AEE00-2C36-4DDF-92BA-7505FAC34B0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,82 +46,112 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TS代码</t>
-  </si>
-  <si>
-    <t>trade_date</t>
-  </si>
-  <si>
-    <t>交易日期</t>
-  </si>
-  <si>
-    <t>total_mv</t>
-  </si>
-  <si>
-    <t>当日总市值（元）</t>
-  </si>
-  <si>
-    <t>float_mv</t>
-  </si>
-  <si>
-    <t>当日流通市值（元）</t>
-  </si>
-  <si>
-    <t>total_share</t>
-  </si>
-  <si>
-    <t>当日总股本（股）</t>
-  </si>
-  <si>
-    <t>float_share</t>
-  </si>
-  <si>
-    <t>当日流通股本（股）</t>
-  </si>
-  <si>
-    <t>free_share</t>
-  </si>
-  <si>
-    <t>当日自由流通股本（股）</t>
-  </si>
-  <si>
-    <t>turnover_rate</t>
-  </si>
-  <si>
-    <t>换手率</t>
-  </si>
-  <si>
-    <t>turnover_rate_f</t>
-  </si>
-  <si>
-    <t>换手率(基于自由流通股本)</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>市盈率</t>
-  </si>
-  <si>
-    <t>pe_ttm</t>
-  </si>
-  <si>
-    <t>市盈率TTM</t>
-  </si>
-  <si>
-    <t>pb</t>
-  </si>
-  <si>
-    <t>市净率</t>
-  </si>
-  <si>
     <t>String(20)</t>
   </si>
   <si>
+    <t>合约代码</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>交易标识</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>交易市场</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>中文简称</t>
+  </si>
+  <si>
+    <t>fut_code</t>
+  </si>
+  <si>
+    <t>合约产品代码</t>
+  </si>
+  <si>
+    <t>trade_unit</t>
+  </si>
+  <si>
+    <t>交易计量单位</t>
+  </si>
+  <si>
+    <t>per_unit</t>
+  </si>
+  <si>
+    <t>交易单位(每手)</t>
+  </si>
+  <si>
+    <t>quote_unit</t>
+  </si>
+  <si>
+    <t>报价单位</t>
+  </si>
+  <si>
+    <t>quote_unit_desc</t>
+  </si>
+  <si>
+    <t>最小报价单位说明</t>
+  </si>
+  <si>
+    <t>d_mode_desc</t>
+  </si>
+  <si>
+    <t>交割方式说明</t>
+  </si>
+  <si>
+    <t>list_date</t>
+  </si>
+  <si>
+    <t>上市日期</t>
+  </si>
+  <si>
+    <t>delist_date</t>
+  </si>
+  <si>
+    <t>最后交易日期</t>
+  </si>
+  <si>
+    <t>d_month</t>
+  </si>
+  <si>
+    <t>交割月份</t>
+  </si>
+  <si>
+    <t>last_ddate</t>
+  </si>
+  <si>
+    <t>最后交割日</t>
+  </si>
+  <si>
+    <t>trade_time_desc</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>交易时间说明</t>
+  </si>
+  <si>
     <t>DOUBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651E96D7-4BDF-4C20-A3CE-5D374CB56BDE}">
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,198 +587,222 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268AEE00-2C36-4DDF-92BA-7505FAC34B0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E30FBA-B640-4306-BD2E-1E224A1D5F02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,118 +40,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ts_code</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>String(20)</t>
   </si>
   <si>
-    <t>合约代码</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>trade_date</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>交易日期</t>
   </si>
   <si>
     <t>symbol</t>
   </si>
   <si>
-    <t>交易标识</t>
+    <t>产品代码</t>
+  </si>
+  <si>
+    <t>fut_name</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>仓库名称</t>
+  </si>
+  <si>
+    <t>wh_id</t>
+  </si>
+  <si>
+    <t>仓库编号</t>
+  </si>
+  <si>
+    <t>pre_vol</t>
+  </si>
+  <si>
+    <t>昨日仓单量</t>
+  </si>
+  <si>
+    <t>今日仓单量</t>
+  </si>
+  <si>
+    <t>vol_chg</t>
+  </si>
+  <si>
+    <t>增减量</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>升贴水</t>
+  </si>
+  <si>
+    <t>is_ct</t>
+  </si>
+  <si>
+    <t>是否折算仓单</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>单位</t>
   </si>
   <si>
     <t>exchange</t>
   </si>
   <si>
-    <t>交易市场</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>中文简称</t>
-  </si>
-  <si>
-    <t>fut_code</t>
-  </si>
-  <si>
-    <t>合约产品代码</t>
-  </si>
-  <si>
-    <t>trade_unit</t>
-  </si>
-  <si>
-    <t>交易计量单位</t>
-  </si>
-  <si>
-    <t>per_unit</t>
-  </si>
-  <si>
-    <t>交易单位(每手)</t>
-  </si>
-  <si>
-    <t>quote_unit</t>
-  </si>
-  <si>
-    <t>报价单位</t>
-  </si>
-  <si>
-    <t>quote_unit_desc</t>
-  </si>
-  <si>
-    <t>最小报价单位说明</t>
-  </si>
-  <si>
-    <t>d_mode_desc</t>
-  </si>
-  <si>
-    <t>交割方式说明</t>
-  </si>
-  <si>
-    <t>list_date</t>
-  </si>
-  <si>
-    <t>上市日期</t>
-  </si>
-  <si>
-    <t>delist_date</t>
-  </si>
-  <si>
-    <t>最后交易日期</t>
-  </si>
-  <si>
-    <t>d_month</t>
-  </si>
-  <si>
-    <t>交割月份</t>
-  </si>
-  <si>
-    <t>last_ddate</t>
-  </si>
-  <si>
-    <t>最后交割日</t>
-  </si>
-  <si>
-    <t>trade_time_desc</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>交易时间说明</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>交易所</t>
   </si>
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String(20)</t>
+    <t>String(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +569,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,221 +592,221 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -806,17 +814,33 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
+++ b/tasks/tushare/tushare_fina_reports/fina_indicator.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WSPycharm\data_integration_celery\tasks\tushare\tushare_fina_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E30FBA-B640-4306-BD2E-1E224A1D5F02}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA1B7E-B32D-4C48-B9EC-8213305E16CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{ABB39CD8-FE6A-45D6-AE65-06711AF2E380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" calcOnSave="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,9 +43,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>String(20)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -61,105 +58,67 @@
     <t>symbol</t>
   </si>
   <si>
-    <t>产品代码</t>
-  </si>
-  <si>
-    <t>fut_name</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>warehouse</t>
-  </si>
-  <si>
-    <t>仓库名称</t>
-  </si>
-  <si>
-    <t>wh_id</t>
-  </si>
-  <si>
-    <t>仓库编号</t>
-  </si>
-  <si>
-    <t>pre_vol</t>
-  </si>
-  <si>
-    <t>昨日仓单量</t>
-  </si>
-  <si>
-    <t>今日仓单量</t>
-  </si>
-  <si>
     <t>vol_chg</t>
   </si>
   <si>
-    <t>增减量</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>地区</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>年度</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>产地</t>
-  </si>
-  <si>
-    <t>pd</t>
-  </si>
-  <si>
-    <t>升贴水</t>
-  </si>
-  <si>
-    <t>is_ct</t>
-  </si>
-  <si>
-    <t>是否折算仓单</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
     <t>exchange</t>
   </si>
   <si>
     <t>交易所</t>
+  </si>
+  <si>
+    <t>合约代码或类型</t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>期货公司会员简称</t>
+  </si>
+  <si>
+    <t>成交量</t>
+  </si>
+  <si>
+    <t>成交量变化</t>
+  </si>
+  <si>
+    <t>long_hld</t>
+  </si>
+  <si>
+    <t>持买仓量</t>
+  </si>
+  <si>
+    <t>long_chg</t>
+  </si>
+  <si>
+    <t>持买仓量变化</t>
+  </si>
+  <si>
+    <t>short_hld</t>
+  </si>
+  <si>
+    <t>持卖仓量</t>
+  </si>
+  <si>
+    <t>short_chg</t>
+  </si>
+  <si>
+    <t>持卖仓量变化</t>
   </si>
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>String(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>String(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOUBLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +528,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,71 +551,71 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -668,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -680,167 +639,111 @@
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
